--- a/excel/characteristic.xlsx
+++ b/excel/characteristic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimbotatsuya/Desktop/environment/arutyukarakara/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E84839-C257-D44A-A4A0-7F375A7CB6ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D04A501-DC9D-7F4C-9D3D-87D9BC26AE8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="10000" windowHeight="16320" xr2:uid="{1670841A-D461-9548-8258-8A76C3B24DF5}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="10000" windowHeight="16220" xr2:uid="{1670841A-D461-9548-8258-8A76C3B24DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="266">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エレキメーカー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>えんかく</t>
     <rPh sb="0" eb="2">
       <t>エンカk</t>
@@ -499,10 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>じゅうききかん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>じょおうのいげん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -828,10 +820,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はとぬね</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>はやあし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -869,10 +857,6 @@
   </si>
   <si>
     <t>バリアフリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パルテルベール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1232,6 +1216,55 @@
   </si>
   <si>
     <t>みずのベール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はとむね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうききかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パステルベール</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレキメイカー</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確認</t>
+    <rPh sb="0" eb="1">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1596,19 +1629,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2788CFA-BE0C-DC4D-BE69-14872BA52E10}">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,3100 +1651,3919 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="str">
-        <f>"Chara.create(name: "&amp;B2&amp;")"</f>
-        <v>Chara.create(name: ARシステム)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"Characteristic.create(name: """&amp;B2&amp;""")"</f>
+        <v>Characteristic.create(name: "ARシステム")</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="str">
-        <f>"Chara.create(name: "&amp;B3&amp;")"</f>
-        <v>Chara.create(name: アイスフェイス)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">"Characteristic.create(name: """&amp;B3&amp;""")"</f>
+        <v>Characteristic.create(name: "アイスフェイス")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="0">"Chara.create(name: "&amp;B4&amp;")"</f>
-        <v>Chara.create(name: アイスボディ)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "アイスボディ")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: あくしゅう)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "あくしゅう")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: あついしぼう)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "あついしぼう")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: あとだし)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "あとだし")</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: アナライズ)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "アナライズ")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: あまのじゃく)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "あまのじゃく")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: あめうけざら)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "あめうけざら")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: あめふらし)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "あめふらし")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: ありじごく)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "ありじごく")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: アロマベール)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "アロマベール")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: いかく)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "いかく")</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: いかりのつぼ)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "いかりのつぼ")</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: いしあたま)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "いしあたま")</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: いたずらごころ)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "いたずらごころ")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: いやしのこころ)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "いやしのこころ")</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: イリュージョン)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "イリュージョン")</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: いろめがね)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "いろめがね")</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: うのミサイル)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "うのミサイル")</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: うるおいボイス)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "うるおいボイス")</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: うるおいボディ)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "うるおいボディ")</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: エアロック)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "エアロック")</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: エレキスキン)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "エレキスキン")</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: エレキメーカー)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>259</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "エレキメイカー")</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: えんかく)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "えんかく")</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: オーラブレイク)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "オーラブレイク")</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: おどりこ)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "おどりこ")</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: おみとおし)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "おみとおし")</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: おやこあい)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "おやこあい")</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: おわりのだいち)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "おわりのだいち")</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: カーリーヘアー)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "カーリーヘアー")</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かいりきバサミ)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かいりきバサミ")</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かがくのちから)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かがくのちから")</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かがくへんかガス)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かがくへんかガス")</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かげふみ)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かげふみ")</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かそく)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かそく")</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かたいツメ)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かたいツメ")</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かたやぶり)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かたやぶり")</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かちき)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かちき")</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: カブトアーマー)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "カブトアーマー")</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かるわざ)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かるわざ")</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かわりもの)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かわりもの")</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: かんそうはだ)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "かんそうはだ")</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: がんじょう)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "がんじょう")</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: がんじょうあご)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "がんじょうあご")</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: ききかいひ)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "ききかいひ")</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きけんよち)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きけんよち")</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きずなへんげ)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きずなへんげ")</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きもったま)</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きもったま")</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きゅうばん)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きゅうばん")</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きょううん)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きょううん")</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きょうせい)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きょうせい")</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: きんちょうかん)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "きんちょうかん")</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: ぎたい)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "ぎたい")</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: ぎゃくじょう)</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "ぎゃくじょう")</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: ぎょぐん)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "ぎょぐん")</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: くいしんぼう)</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "くいしんぼう")</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: くさのけがわ)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "くさのけがわ")</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: くだけるよろい)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "くだけるよろい")</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: クリアボディ)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "クリアボディ")</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: グラスメイカー)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "グラスメイカー")</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: げきりゅう)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "げきりゅう")</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: こおりのりんぷん)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "こおりのりんぷん")</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: こんじょう)</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic.create(name: "こんじょう")</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>Chara.create(name: ごりむちゅう)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="1">"Characteristic.create(name: """&amp;B67&amp;""")"</f>
+        <v>Characteristic.create(name: "ごりむちゅう")</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68:D131" si="1">"Chara.create(name: "&amp;B68&amp;")"</f>
-        <v>Chara.create(name: サーフテール)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "サーフテール")</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: サイコメイカー)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "サイコメイカー")</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: さいせいりょく)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "さいせいりょく")</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: さまようたましい)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "さまようたましい")</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: さめはだ)</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "さめはだ")</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: サンパワー)</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "サンパワー")</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: シェルアーマー)</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "シェルアーマー")</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: しぜんかいふく)</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "しぜんかいふく")</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: しめりけ)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "しめりけ")</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: しゅうかく)</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "しゅうかく")</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: しょうりのほし)</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>260</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "しょうりのほし")</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: しろいけむり)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "しろいけむり")</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: シンクロ)</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "シンクロ")</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: しんりょく)</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "しんりょく")</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じきゅうりょく)</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じきゅうりょく")</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じしんかじょう)</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じしんかじょう")</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じゅうなん)</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じゅうなん")</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じゅくせい)</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じゅくせい")</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じゅうききかん)</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>257</v>
+      </c>
+      <c r="C86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じょうききかん")</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じょおうのいげん)</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じょおうのいげん")</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: じりょく)</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "じりょく")</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スイートベール)</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スイートベール")</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すいすい)</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すいすい")</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すいほう)</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すいほう")</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スカイスキン)</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スカイスキン")</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スキルリンク)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>260</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スキルリンク")</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スクリューおびれ)</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>260</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スクリューおびれ")</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すじがねいり)</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>260</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すじがねいり")</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すてみ)</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>260</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すてみ")</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スナイパー)</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スナイパー")</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すなおこし)</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>260</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すなおこし")</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すなかき)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>260</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すなかき")</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すながくれ)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>260</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すながくれ")</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すなのちから)</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すなのちから")</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すなはき)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すなはき")</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: すりぬけ)</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "すりぬけ")</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: するどいめ)</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "するどいめ")</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スロースタート)</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" t="s">
+        <v>264</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スロースタート")</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: スワームチェンジ)</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "スワームチェンジ")</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: せいぎのこころ)</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "せいぎのこころ")</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: せいしんりょく)</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "せいしんりょく")</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: せいでんき)</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>260</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "せいでんき")</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ぜったいねむり)</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>260</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ぜったいねむり")</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: そうしょく)</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "そうしょく")</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
-      </c>
-      <c r="D112" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ソウルハート)</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>260</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ソウルハート")</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ダーボブレイズ)</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>262</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ダーボブレイズ")</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: たいねつ)</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="C114" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "たいねつ")</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: たまひろい)</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "たまひろい")</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: たんじゅん)</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "たんじゅん")</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ダークオーラ)</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ダークオーラ")</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ダウンロード)</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="C118" t="s">
+        <v>260</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ダウンロード")</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
-      </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: だっぴ)</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="C119" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "だっぴ")</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ダルマモード)</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="C120" t="s">
+        <v>260</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ダルマモード")</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ちからずく)</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="C121" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ちからずく")</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ちからもち)</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="C122" t="s">
+        <v>261</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ちからもち")</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
-      </c>
-      <c r="D123" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ちくでん)</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="C123" t="s">
+        <v>261</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ちくでん")</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ちどりあし)</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="C124" t="s">
+        <v>260</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ちどりあし")</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
-      </c>
-      <c r="D125" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: ちょすい)</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>261</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "ちょすい")</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: てきおうりょく)</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "てきおうりょく")</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
-      </c>
-      <c r="D127" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: テクニシャン)</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="C127" t="s">
+        <v>261</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "テクニシャン")</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: てつのこぶし)</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>261</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "てつのこぶし")</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: てつのトゲ)</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="C129" t="s">
+        <v>260</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "てつのトゲ")</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: テラボルテージ)</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="C130" t="s">
+        <v>262</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic.create(name: "テラボルテージ")</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" si="1"/>
-        <v>Chara.create(name: テレパシー)</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E194" si="2">"Characteristic.create(name: """&amp;B131&amp;""")"</f>
+        <v>Characteristic.create(name: "テレパシー")</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
-      </c>
-      <c r="D132" t="str">
-        <f t="shared" ref="D132:D195" si="2">"Chara.create(name: "&amp;B132&amp;")"</f>
-        <v>Chara.create(name: てんきや)</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="C132" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "てんきや")</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
-      </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: てんねん)</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="C133" t="s">
+        <v>261</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "てんねん")</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: てんのめぐみ)</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="C134" t="s">
+        <v>260</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "てんのめぐみ")</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
-      </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: デルタストリーム)</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "デルタストリーム")</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: でんきエンジン)</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="C136" t="s">
+        <v>261</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "でんきエンジン")</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
-      </c>
-      <c r="D137" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: とうそうしん)</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="C137" t="s">
+        <v>261</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "とうそうしん")</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
-      </c>
-      <c r="D138" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: とびだすなかみ)</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="C138" t="s">
+        <v>260</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "とびだすなかみ")</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
-      </c>
-      <c r="D139" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: トレース)</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="C139" t="s">
+        <v>260</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "トレース")</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
-      </c>
-      <c r="D140" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: どくしゅ)</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="C140" t="s">
+        <v>260</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "どくしゅ")</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: どくのトゲ)</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="C141" t="s">
+        <v>260</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "どくのトゲ")</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
-      </c>
-      <c r="D142" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: どくぼうそう)</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="C142" t="s">
+        <v>261</v>
+      </c>
+      <c r="D142" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "どくぼうそう")</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
-      </c>
-      <c r="D143" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: どんかん)</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="C143" t="s">
+        <v>260</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "どんかん")</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
-      </c>
-      <c r="D144" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ナイトメア)</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="C144" t="s">
+        <v>260</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ナイトメア")</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
-      </c>
-      <c r="D145" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: なまけ)</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="C145" t="s">
+        <v>260</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "なまけ")</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
-      </c>
-      <c r="D146" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: にげあし)</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="C146" t="s">
+        <v>260</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "にげあし")</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
-      </c>
-      <c r="D147" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: にげごし)</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="C147" t="s">
+        <v>260</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "にげごし")</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
-      </c>
-      <c r="D148" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ぬめぬめ)</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
+        <v>260</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ぬめぬめ")</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
-      </c>
-      <c r="D149" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ねつぼうそう)</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="C149" t="s">
+        <v>261</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ねつぼうそう")</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ねんちゃく)</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="C150" t="s">
+        <v>260</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ねんちゃく")</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
-      </c>
-      <c r="D151" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ノーガード)</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="C151" t="s">
+        <v>260</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ノーガード")</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
-      </c>
-      <c r="D152" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ノーてんき)</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="C152" t="s">
+        <v>261</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ノーてんき")</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
-      </c>
-      <c r="D153" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ノーマルスキン)</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="C153" t="s">
+        <v>262</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ノーマルスキン")</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
-      </c>
-      <c r="D154" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: のろわれボディ)</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="C154" t="s">
+        <v>260</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "のろわれボディ")</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
-      </c>
-      <c r="D155" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ハードロック)</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="C155" t="s">
+        <v>261</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ハードロック")</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はがねつかい)</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>261</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はがねつかい")</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はがねのせいしん)</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="C157" t="s">
+        <v>260</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はがねのせいしん")</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はじまりのうみ)</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>262</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はじまりのうみ")</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はっこう)</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="C159" t="s">
+        <v>260</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はっこう")</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はとぬね)</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>256</v>
+      </c>
+      <c r="C160" t="s">
+        <v>260</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はとむね")</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
-      </c>
-      <c r="D161" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はやあし)</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>260</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はやあし")</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
-      </c>
-      <c r="D162" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はやおき)</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
+        <v>260</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はやおき")</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
-      </c>
-      <c r="D163" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はやてのつばさ)</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>260</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はやてのつばさ")</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
-      </c>
-      <c r="D164" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はらぺこスイッチ)</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>260</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はらぺこスイッチ")</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
-      </c>
-      <c r="D165" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はりきり)</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>161</v>
+      </c>
+      <c r="C165" t="s">
+        <v>261</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はりきり")</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
-      </c>
-      <c r="D166" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: はりこみ)</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>261</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "はりこみ")</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
-      </c>
-      <c r="D167" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ばけのかわ)</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="C167" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ばけのかわ")</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
-      </c>
-      <c r="D168" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: バッテリー)</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>260</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "バッテリー")</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
-      </c>
-      <c r="D169" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: バトルスイッチ)</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>260</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "バトルスイッチ")</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
-      </c>
-      <c r="D170" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: バリアフリー)</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="C170" t="s">
+        <v>261</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "バリアフリー")</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
-      </c>
-      <c r="D171" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: パルテルベール)</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>258</v>
+      </c>
+      <c r="C171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "パステルベール")</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
-      </c>
-      <c r="D172" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: パワースポット)</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="C172" t="s">
+        <v>260</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "パワースポット")</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
-      </c>
-      <c r="D173" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: パンクロック)</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="C173" t="s">
+        <v>261</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "パンクロック")</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
-      </c>
-      <c r="D174" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ヒーリングシフト)</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
+        <v>260</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ヒーリングシフト")</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
-      </c>
-      <c r="D175" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ひでり)</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
+        <v>260</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ひでり")</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
-      </c>
-      <c r="D176" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ひとでなし)</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="C176" t="s">
+        <v>261</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ひとでなし")</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
-      </c>
-      <c r="D177" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ひらいしん)</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="C177" t="s">
+        <v>261</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ひらいしん")</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ビーストブースト)</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>260</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ビーストブースト")</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
-      </c>
-      <c r="D179" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ビビッドボディ)</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="C179" t="s">
+        <v>260</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ビビッドボディ")</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
-      </c>
-      <c r="D180" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: びびり)</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>175</v>
+      </c>
+      <c r="C180" t="s">
+        <v>260</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "びびり")</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
-      </c>
-      <c r="D181" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ファーコート)</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="C181" t="s">
+        <v>261</v>
+      </c>
+      <c r="D181" t="s">
+        <v>263</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ファーコート")</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
-      </c>
-      <c r="D182" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ファントムガード)</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="C182" t="s">
+        <v>261</v>
+      </c>
+      <c r="D182" t="s">
+        <v>263</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ファントムガード")</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
-      </c>
-      <c r="D183" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: フィルター)</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>178</v>
+      </c>
+      <c r="C183" t="s">
+        <v>261</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "フィルター")</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
-      </c>
-      <c r="D184" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: フェアリーオーラ)</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="C184" t="s">
+        <v>261</v>
+      </c>
+      <c r="D184" t="s">
+        <v>263</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "フェアリーオーラ")</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
-      </c>
-      <c r="D185" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: フェアリースキン)</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="C185" t="s">
+        <v>261</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "フェアリースキン")</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
-      </c>
-      <c r="D186" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふくがん)</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="C186" t="s">
+        <v>260</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふくがん")</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
-      </c>
-      <c r="D187" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふくつのこころ)</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="C187" t="s">
+        <v>260</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふくつのこころ")</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
-      </c>
-      <c r="D188" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふくつのたて)</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>183</v>
+      </c>
+      <c r="C188" t="s">
+        <v>260</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふくつのたて")</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
-      </c>
-      <c r="D189" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふしぎなうろこ)</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="C189" t="s">
+        <v>261</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふしぎなうろこ")</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
-      </c>
-      <c r="D190" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふしぎなまもり)</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="C190" t="s">
+        <v>261</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふしぎなまもり")</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
-      </c>
-      <c r="D191" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふしょく)</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>186</v>
+      </c>
+      <c r="C191" t="s">
+        <v>260</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふしょく")</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
-      </c>
-      <c r="D192" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふとうのけん)</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="C192" t="s">
+        <v>260</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふとうのけん")</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
-      </c>
-      <c r="D193" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふみん)</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="C193" t="s">
+        <v>260</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふみん")</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
-      </c>
-      <c r="D194" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: ふゆう)</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="C194" t="s">
+        <v>261</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic.create(name: "ふゆう")</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
-      </c>
-      <c r="D195" t="str">
-        <f t="shared" si="2"/>
-        <v>Chara.create(name: フラワーギフト)</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>190</v>
+      </c>
+      <c r="C195" t="s">
+        <v>260</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" ref="E195:E258" si="3">"Characteristic.create(name: """&amp;B195&amp;""")"</f>
+        <v>Characteristic.create(name: "フラワーギフト")</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" ref="D196:D259" si="3">"Chara.create(name: "&amp;B196&amp;")"</f>
-        <v>Chara.create(name: フラワーベール)</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>191</v>
+      </c>
+      <c r="C196" t="s">
+        <v>260</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "フラワーベール")</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
-      </c>
-      <c r="D197" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: フリーズスキン)</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="C197" t="s">
+        <v>261</v>
+      </c>
+      <c r="D197" t="s">
+        <v>263</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "フリーズスキン")</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
-      </c>
-      <c r="D198" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: フレンドガード)</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>193</v>
+      </c>
+      <c r="C198" t="s">
+        <v>260</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "フレンドガード")</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
-      </c>
-      <c r="D199" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ぶきよう)</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="C199" t="s">
+        <v>260</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ぶきよう")</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
-      </c>
-      <c r="D200" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ブレインフォース)</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="C200" t="s">
+        <v>261</v>
+      </c>
+      <c r="D200" t="s">
+        <v>263</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ブレインフォース")</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D201" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: プラス)</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>196</v>
+      </c>
+      <c r="C201" t="s">
+        <v>260</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "プラス")</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
-      </c>
-      <c r="D202" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: プリズムアーマー)</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="C202" t="s">
+        <v>261</v>
+      </c>
+      <c r="D202" t="s">
+        <v>263</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "プリズムアーマー")</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
-      </c>
-      <c r="D203" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: プレッシャー)</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="C203" t="s">
+        <v>260</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "プレッシャー")</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D204" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ヘドロえき)</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="C204" t="s">
+        <v>260</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ヘドロえき")</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
-      </c>
-      <c r="D205" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: へんげんじざい)</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>200</v>
+      </c>
+      <c r="C205" t="s">
+        <v>261</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "へんげんじざい")</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
-      </c>
-      <c r="D206" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: へんしょく)</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>201</v>
+      </c>
+      <c r="C206" t="s">
+        <v>260</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "へんしょく")</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
-      </c>
-      <c r="D207" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ヘヴィメタル)</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>202</v>
+      </c>
+      <c r="C207" t="s">
+        <v>260</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ヘヴィメタル")</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
-      </c>
-      <c r="D208" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ほうし)</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>203</v>
+      </c>
+      <c r="C208" t="s">
+        <v>260</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ほうし")</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
-      </c>
-      <c r="D209" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ほおぶくろ)</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>204</v>
+      </c>
+      <c r="C209" t="s">
+        <v>260</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ほおぶくろ")</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
-      </c>
-      <c r="D210" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ほのおのからだ)</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>205</v>
+      </c>
+      <c r="C210" t="s">
+        <v>260</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ほのおのからだ")</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
-      </c>
-      <c r="D211" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ほろびのボディ)</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>206</v>
+      </c>
+      <c r="C211" t="s">
+        <v>260</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ほろびのボディ")</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
-      </c>
-      <c r="D212" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ぼうおん)</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="C212" t="s">
+        <v>261</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ぼうおん")</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
-      </c>
-      <c r="D213" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ぼうじん)</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="C213" t="s">
+        <v>260</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ぼうじん")</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
-      </c>
-      <c r="D214" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ぼうだん)</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>209</v>
+      </c>
+      <c r="C214" t="s">
+        <v>261</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ぼうだん")</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
-      </c>
-      <c r="D215" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ポイズンヒール)</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>210</v>
+      </c>
+      <c r="C215" t="s">
+        <v>260</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ポイズンヒール")</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
-      </c>
-      <c r="D216" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マイナス)</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>211</v>
+      </c>
+      <c r="C216" t="s">
+        <v>260</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マイナス")</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
-      </c>
-      <c r="D217" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マイペース)</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>212</v>
+      </c>
+      <c r="C217" t="s">
+        <v>260</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マイペース")</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
-      </c>
-      <c r="D218" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マグマのよろい)</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="C218" t="s">
+        <v>260</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マグマのよろい")</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
-      </c>
-      <c r="D219" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: まけんき)</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>214</v>
+      </c>
+      <c r="C219" t="s">
+        <v>260</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "まけんき")</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
-      </c>
-      <c r="D220" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マジシャン)</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>215</v>
+      </c>
+      <c r="C220" t="s">
+        <v>260</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マジシャン")</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
-      </c>
-      <c r="D221" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マジックガード)</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>216</v>
+      </c>
+      <c r="C221" t="s">
+        <v>260</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マジックガード")</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
-      </c>
-      <c r="D222" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マジックミラー)</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="C222" t="s">
+        <v>260</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マジックミラー")</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
-      </c>
-      <c r="D223" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マルチスケイル)</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="C223" t="s">
+        <v>261</v>
+      </c>
+      <c r="D223" t="s">
+        <v>263</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マルチスケイル")</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
-      </c>
-      <c r="D224" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: マルチタイプ)</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>219</v>
+      </c>
+      <c r="C224" t="s">
+        <v>260</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "マルチタイプ")</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
-      </c>
-      <c r="D225" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ミイラ)</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>220</v>
+      </c>
+      <c r="C225" t="s">
+        <v>260</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ミイラ")</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
-      </c>
-      <c r="D226" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ミストメイカー)</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>221</v>
+      </c>
+      <c r="C226" t="s">
+        <v>260</v>
+      </c>
+      <c r="E226" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ミストメイカー")</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
-      </c>
-      <c r="D227" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: みずがため)</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>222</v>
+      </c>
+      <c r="C227" t="s">
+        <v>260</v>
+      </c>
+      <c r="E227" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "みずがため")</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>259</v>
-      </c>
-      <c r="D228" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: みずのベール)</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>255</v>
+      </c>
+      <c r="C228" t="s">
+        <v>260</v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "みずのベール")</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
-      </c>
-      <c r="D229" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: みつあつめ)</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>223</v>
+      </c>
+      <c r="C229" t="s">
+        <v>260</v>
+      </c>
+      <c r="E229" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "みつあつめ")</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
-      </c>
-      <c r="D230" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ミラーアーマー)</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>224</v>
+      </c>
+      <c r="C230" t="s">
+        <v>260</v>
+      </c>
+      <c r="E230" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ミラーアーマー")</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
-      </c>
-      <c r="D231" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ミラクルスキン)</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>225</v>
+      </c>
+      <c r="C231" t="s">
+        <v>260</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ミラクルスキン")</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
-      </c>
-      <c r="D232" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: むしのしらせ)</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>226</v>
+      </c>
+      <c r="C232" t="s">
+        <v>261</v>
+      </c>
+      <c r="E232" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "むしのしらせ")</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
-      </c>
-      <c r="D233" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ムラっけ)</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>227</v>
+      </c>
+      <c r="C233" t="s">
+        <v>260</v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ムラっけ")</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
-      </c>
-      <c r="D234" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: メガランチャー)</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>228</v>
+      </c>
+      <c r="C234" t="s">
+        <v>261</v>
+      </c>
+      <c r="D234" t="s">
+        <v>263</v>
+      </c>
+      <c r="E234" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "メガランチャー")</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
-      </c>
-      <c r="D235" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: メタルプロテクト)</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="C235" t="s">
+        <v>260</v>
+      </c>
+      <c r="E235" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "メタルプロテクト")</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
-      </c>
-      <c r="D236" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: メロメロボディ)</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>230</v>
+      </c>
+      <c r="C236" t="s">
+        <v>260</v>
+      </c>
+      <c r="E236" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "メロメロボディ")</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
-      </c>
-      <c r="D237" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: めんえき)</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>231</v>
+      </c>
+      <c r="C237" t="s">
+        <v>260</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "めんえき")</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
-      </c>
-      <c r="D238" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: もうか)</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="C238" t="s">
+        <v>261</v>
+      </c>
+      <c r="E238" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "もうか")</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
-      </c>
-      <c r="D239" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ものひろい)</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>233</v>
+      </c>
+      <c r="C239" t="s">
+        <v>260</v>
+      </c>
+      <c r="E239" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ものひろい")</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
-      </c>
-      <c r="D240" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: もふもふ)</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="C240" t="s">
+        <v>261</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "もふもふ")</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
-      </c>
-      <c r="D241" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: もらいび)</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>235</v>
+      </c>
+      <c r="C241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "もらいび")</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
-      </c>
-      <c r="D242" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: やるき)</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="C242" t="s">
+        <v>260</v>
+      </c>
+      <c r="E242" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "やるき")</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
-      </c>
-      <c r="D243" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ゆうばく)</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>237</v>
+      </c>
+      <c r="C243" t="s">
+        <v>260</v>
+      </c>
+      <c r="E243" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ゆうばく")</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
-      </c>
-      <c r="D244" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ゆきかき)</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>238</v>
+      </c>
+      <c r="C244" t="s">
+        <v>260</v>
+      </c>
+      <c r="E244" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ゆきかき")</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
-      </c>
-      <c r="D245" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ゆきがくれ)</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>239</v>
+      </c>
+      <c r="C245" t="s">
+        <v>260</v>
+      </c>
+      <c r="E245" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ゆきがくれ")</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
-      </c>
-      <c r="D246" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ゆきふらし)</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>240</v>
+      </c>
+      <c r="C246" t="s">
+        <v>260</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ゆきふらし")</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
-      </c>
-      <c r="D247" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ようりょくそ)</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>241</v>
+      </c>
+      <c r="C247" t="s">
+        <v>260</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ようりょくそ")</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
-      </c>
-      <c r="D248" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ヨガパワー)</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>242</v>
+      </c>
+      <c r="C248" t="s">
+        <v>260</v>
+      </c>
+      <c r="E248" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ヨガパワー")</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>247</v>
-      </c>
-      <c r="D249" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: よちむ)</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>243</v>
+      </c>
+      <c r="C249" t="s">
+        <v>260</v>
+      </c>
+      <c r="E249" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "よちむ")</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>248</v>
-      </c>
-      <c r="D250" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: よびみず)</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="C250" t="s">
+        <v>261</v>
+      </c>
+      <c r="E250" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "よびみず")</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
-      </c>
-      <c r="D251" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: よわき)</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>245</v>
+      </c>
+      <c r="C251" t="s">
+        <v>261</v>
+      </c>
+      <c r="D251" t="s">
+        <v>264</v>
+      </c>
+      <c r="E251" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "よわき")</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>250</v>
-      </c>
-      <c r="D252" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: ライトメタル)</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>246</v>
+      </c>
+      <c r="C252" t="s">
+        <v>260</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "ライトメタル")</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
-      </c>
-      <c r="D253" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: リーフガード)</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>247</v>
+      </c>
+      <c r="C253" t="s">
+        <v>260</v>
+      </c>
+      <c r="E253" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "リーフガード")</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
-      </c>
-      <c r="D254" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: リベロ)</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>248</v>
+      </c>
+      <c r="C254" t="s">
+        <v>261</v>
+      </c>
+      <c r="E254" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "リベロ")</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
-      </c>
-      <c r="D255" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: リミットシールド)</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>249</v>
+      </c>
+      <c r="C255" t="s">
+        <v>260</v>
+      </c>
+      <c r="E255" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "リミットシールド")</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>254</v>
-      </c>
-      <c r="D256" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: りんぷん)</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>250</v>
+      </c>
+      <c r="C256" t="s">
+        <v>260</v>
+      </c>
+      <c r="E256" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "りんぷん")</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
-      </c>
-      <c r="D257" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: レシーバー)</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>251</v>
+      </c>
+      <c r="C257" t="s">
+        <v>260</v>
+      </c>
+      <c r="E257" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "レシーバー")</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
-      </c>
-      <c r="D258" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: わたげ)</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>252</v>
+      </c>
+      <c r="C258" t="s">
+        <v>260</v>
+      </c>
+      <c r="E258" t="str">
+        <f t="shared" si="3"/>
+        <v>Characteristic.create(name: "わたげ")</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
-      </c>
-      <c r="D259" t="str">
-        <f t="shared" si="3"/>
-        <v>Chara.create(name: わるいてぐせ)</v>
+        <v>253</v>
+      </c>
+      <c r="C259" t="s">
+        <v>260</v>
+      </c>
+      <c r="E259" t="str">
+        <f t="shared" ref="E259" si="4">"Characteristic.create(name: """&amp;B259&amp;""")"</f>
+        <v>Characteristic.create(name: "わるいてぐせ")</v>
       </c>
     </row>
   </sheetData>
